--- a/Sprint Budget 2.xlsx
+++ b/Sprint Budget 2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20730" windowHeight="11760" tabRatio="395" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20730" windowHeight="11760" tabRatio="395"/>
   </bookViews>
   <sheets>
     <sheet name="Budget" sheetId="9" r:id="rId1"/>
@@ -2000,8 +2000,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BM14"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6251,7 +6251,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:BL15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
